--- a/tools-mysql/excel/数据库设计.xlsx
+++ b/tools-mysql/excel/数据库设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Note\java_workspace\Tools\tools-mysql\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F607D137-81AF-4E58-9042-C356154D00BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFBB80E-116F-43B9-A810-C5FE32D594B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1968" windowWidth="17280" windowHeight="8964" xr2:uid="{0D0299C7-CF5A-49DE-A76D-D54A9F1AB204}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D0299C7-CF5A-49DE-A76D-D54A9F1AB204}"/>
   </bookViews>
   <sheets>
     <sheet name="功能页面表" sheetId="1" r:id="rId1"/>
@@ -182,6 +182,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +349,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,7 +672,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -675,7 +681,7 @@
     <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
@@ -920,7 +926,9 @@
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="13">
+        <v>43780</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="J10" s="9"/>

--- a/tools-mysql/excel/数据库设计.xlsx
+++ b/tools-mysql/excel/数据库设计.xlsx
@@ -5,15 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Note\java_workspace\Tools\tools-mysql\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18464\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFBB80E-116F-43B9-A810-C5FE32D594B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC12B42-E772-4BE8-820A-8E00094D2A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D0299C7-CF5A-49DE-A76D-D54A9F1AB204}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0D0299C7-CF5A-49DE-A76D-D54A9F1AB204}"/>
   </bookViews>
   <sheets>
     <sheet name="功能页面表" sheetId="1" r:id="rId1"/>
+    <sheet name="稿件信息表" sheetId="3" r:id="rId2"/>
+    <sheet name="客户信息表" sheetId="4" r:id="rId3"/>
+    <sheet name="刊登信息表" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="85">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +69,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>主键id，使用自增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +161,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>稿件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,6 +173,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稿件的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稿件状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0正常，1处理中，2拒稿，3已刊登，4已见报，5已刊登或已见报，6非拒稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求发布稿件的客户公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户的手机号应该是必须要有的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0网络，1app客户端，2微博，3微信公众号，4平面，5刷量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.稿件的类型和状态还需要去确认一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稿件链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的链接可以是客户给的并上传至服务器的文件地址，也可以是客户给的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户所属公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稿件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒体名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稿件信息表的id主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒介编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒介信息表的id主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊登链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>功能页面表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +350,30 @@
   </si>
   <si>
     <t>主键id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊登信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_info_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稿件信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_info_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_info_tb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,9 +381,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,12 +523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,17 +532,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,8 +873,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -681,51 +883,51 @@
     <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="J1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -744,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
@@ -752,211 +954,209 @@
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4">
         <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="4">
         <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4">
         <v>200</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="13">
-        <v>43780</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -967,10 +1167,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -981,10 +1181,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -995,10 +1195,10 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1009,10 +1209,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1023,10 +1223,10 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1037,10 +1237,10 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1051,10 +1251,10 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1067,4 +1267,1384 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3BAEBD-6657-414D-90E0-A7BBC9047CB9}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="A9:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="11"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="11"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="11"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:M19"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CF50F2-C6DE-4F7A-B2AB-6716798A88DC}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="11"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="11"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="11"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="11"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="11"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="11"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:M23"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA2A203-43FA-4F52-ACE2-532C15CA82AF}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4">
+        <v>200</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="4">
+        <v>600</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:M19"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>